--- a/Mining Profits Analysis.xlsx
+++ b/Mining Profits Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\GitHub\eth-gpu-mining-profitability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B3B44D-22F1-4011-B88A-FDA0CB6498A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AABFF8-31B5-44B6-90A9-E61CDEDA6266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11325" xr2:uid="{66B3F881-5B90-4DB1-B63B-2D100C44C995}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15375" xr2:uid="{66B3F881-5B90-4DB1-B63B-2D100C44C995}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Analysis" sheetId="3" r:id="rId1"/>
@@ -1127,24 +1127,6 @@
     <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1166,12 +1148,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:AC44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,34 +1506,34 @@
   <sheetData>
     <row r="1" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:29" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="90">
+      <c r="C3" s="84">
         <v>44340</v>
       </c>
-      <c r="D3" s="90"/>
+      <c r="D3" s="84"/>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
@@ -1556,58 +1556,58 @@
       <c r="AC4"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="26">
         <f>'Electricity Calculations'!F6/100</f>
         <v>0.10324999999999999</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="89"/>
+      <c r="H5" s="83"/>
       <c r="I5" s="75">
         <v>3247</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="88" t="s">
+      <c r="K5" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="89"/>
+      <c r="L5" s="83"/>
       <c r="M5" s="76">
         <v>13.16</v>
       </c>
     </row>
     <row r="6" spans="1:29" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
-      <c r="B6" s="88" t="s">
+      <c r="A6" s="90"/>
+      <c r="B6" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="77">
         <v>613.84699999999998</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="88" t="s">
+      <c r="G6" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="89"/>
+      <c r="H6" s="83"/>
       <c r="I6" s="77">
         <v>2.2000000000000002</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="88" t="s">
+      <c r="K6" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="89"/>
+      <c r="L6" s="83"/>
       <c r="M6" s="81">
         <f>24*3600/$M$5*$I$6*$I$5/D6/1000000</f>
         <v>7.6401640690808459E-2</v>
@@ -1630,7 +1630,7 @@
       <c r="AC6"/>
     </row>
     <row r="7" spans="1:29" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
+      <c r="A7" s="90"/>
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
@@ -1642,7 +1642,7 @@
       <c r="AC7"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="24" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1693,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="44" t="s">
         <v>52</v>
       </c>
@@ -1759,7 +1759,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="33" t="s">
         <v>12</v>
       </c>
@@ -1810,7 +1810,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="47" t="s">
         <v>43</v>
       </c>
@@ -1861,7 +1861,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="33" t="s">
         <v>15</v>
       </c>
@@ -1927,7 +1927,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="47" t="s">
         <v>53</v>
       </c>
@@ -1993,7 +1993,7 @@
       </c>
     </row>
     <row r="14" spans="1:29" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="33" t="s">
         <v>54</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>700</v>
       </c>
       <c r="E14" s="38">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="38">
         <v>450</v>
@@ -2044,7 +2044,7 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="47" t="s">
         <v>19</v>
       </c>
@@ -2110,7 +2110,7 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="33" t="s">
         <v>20</v>
       </c>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="E16" s="58">
         <f t="shared" si="8"/>
-        <v>338.66245312196321</v>
+        <v>356.48679275996125</v>
       </c>
       <c r="F16" s="58">
         <f t="shared" ref="F16" si="9">F14/F13</f>
@@ -2176,7 +2176,7 @@
       </c>
     </row>
     <row r="17" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="25" t="s">
         <v>55</v>
       </c>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="E17" s="55">
         <f t="shared" si="11"/>
-        <v>1.0777693146531122</v>
+        <v>1.0238808489204565</v>
       </c>
       <c r="F17" s="55">
         <f t="shared" ref="F17" si="12">F13*365/F14</f>
@@ -2242,25 +2242,25 @@
       </c>
     </row>
     <row r="18" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="92" t="s">
+      <c r="A18" s="90"/>
+      <c r="B18" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="94"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="88"/>
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
@@ -2272,50 +2272,50 @@
       <c r="AC18"/>
     </row>
     <row r="19" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="95" t="s">
+      <c r="A19" s="90"/>
+      <c r="B19" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="97"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="94"/>
     </row>
     <row r="20" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
-      <c r="B20" s="98" t="s">
+      <c r="A20" s="91"/>
+      <c r="B20" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="100"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97"/>
     </row>
     <row r="21" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="89" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -2327,7 +2327,7 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -2393,7 +2393,7 @@
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="60" t="s">
         <v>42</v>
       </c>
@@ -2459,7 +2459,7 @@
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="40" t="s">
         <v>22</v>
       </c>
@@ -2525,7 +2525,7 @@
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="64" t="s">
         <v>20</v>
       </c>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="E26" s="66">
         <f t="shared" si="17"/>
-        <v>380.5977445712042</v>
+        <v>400.62920481179384</v>
       </c>
       <c r="F26" s="66">
         <f t="shared" ref="F26" si="18">IF(F25&gt;0,F$14/F25,"N/A")</f>
@@ -2591,7 +2591,7 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="71" t="s">
         <v>21</v>
       </c>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="E27" s="73">
         <f t="shared" ref="E27:Q27" si="19">E25*365/E14</f>
-        <v>0.95901776930187221</v>
+        <v>0.91106688083677867</v>
       </c>
       <c r="F27" s="73">
         <f t="shared" ref="F27" si="20">F25*365/F14</f>
@@ -2657,29 +2657,29 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="84"/>
-      <c r="B28" s="85" t="s">
+      <c r="A28" s="91"/>
+      <c r="B28" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="87"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="100"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="89" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -2691,7 +2691,7 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
@@ -2757,7 +2757,7 @@
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="60" t="s">
         <v>42</v>
       </c>
@@ -2823,7 +2823,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="40" t="s">
         <v>22</v>
       </c>
@@ -2889,7 +2889,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="64" t="s">
         <v>20</v>
       </c>
@@ -2955,7 +2955,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="71" t="s">
         <v>21</v>
       </c>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="E35" s="73">
         <f t="shared" si="27"/>
-        <v>-0.15133030990043228</v>
+        <v>-0.14376379440541068</v>
       </c>
       <c r="F35" s="73">
         <f t="shared" ref="F35" si="28">F33*365/F$14</f>
@@ -3021,29 +3021,29 @@
       </c>
     </row>
     <row r="36" spans="1:17" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="84"/>
-      <c r="B36" s="85" t="s">
+      <c r="A36" s="91"/>
+      <c r="B36" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="87"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="100"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="89" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -3055,7 +3055,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="83"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
@@ -3121,7 +3121,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="60" t="s">
         <v>42</v>
       </c>
@@ -3187,7 +3187,7 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="40" t="s">
         <v>22</v>
       </c>
@@ -3253,7 +3253,7 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="64" t="s">
         <v>20</v>
       </c>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="E42" s="66">
         <f t="shared" ref="E42:F42" si="42">IF(E41&gt;0,E$14/E41,"N/A")</f>
-        <v>1641.038696972869</v>
+        <v>1727.4091547082833</v>
       </c>
       <c r="F42" s="66">
         <f t="shared" si="42"/>
@@ -3319,7 +3319,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="83"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="71" t="s">
         <v>21</v>
       </c>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="E43" s="31">
         <f>E41*365/E$14</f>
-        <v>0.22242010543279375</v>
+        <v>0.21129910016115405</v>
       </c>
       <c r="F43" s="31">
         <f>F41*365/F$14</f>
@@ -3385,28 +3385,34 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="84"/>
-      <c r="B44" s="85" t="s">
+      <c r="A44" s="91"/>
+      <c r="B44" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="86"/>
-      <c r="O44" s="86"/>
-      <c r="P44" s="86"/>
-      <c r="Q44" s="87"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B44:Q44"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B28:Q28"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="C3:D3"/>
@@ -3419,12 +3425,6 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B44:Q44"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B28:Q28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="63" orientation="portrait" r:id="rId1"/>

--- a/Mining Profits Analysis.xlsx
+++ b/Mining Profits Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\GitHub\eth-gpu-mining-profitability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AABFF8-31B5-44B6-90A9-E61CDEDA6266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B3B44D-22F1-4011-B88A-FDA0CB6498A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15375" xr2:uid="{66B3F881-5B90-4DB1-B63B-2D100C44C995}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11325" xr2:uid="{66B3F881-5B90-4DB1-B63B-2D100C44C995}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Analysis" sheetId="3" r:id="rId1"/>
@@ -1127,6 +1127,24 @@
     <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1148,30 +1166,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:AC44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,34 +1506,34 @@
   <sheetData>
     <row r="1" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:29" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
     </row>
     <row r="3" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="90">
         <v>44340</v>
       </c>
-      <c r="D3" s="84"/>
+      <c r="D3" s="90"/>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
@@ -1556,58 +1556,58 @@
       <c r="AC4"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="83"/>
+      <c r="C5" s="89"/>
       <c r="D5" s="26">
         <f>'Electricity Calculations'!F6/100</f>
         <v>0.10324999999999999</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="83"/>
+      <c r="H5" s="89"/>
       <c r="I5" s="75">
         <v>3247</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="82" t="s">
+      <c r="K5" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="83"/>
+      <c r="L5" s="89"/>
       <c r="M5" s="76">
         <v>13.16</v>
       </c>
     </row>
     <row r="6" spans="1:29" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="90"/>
-      <c r="B6" s="82" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="83"/>
+      <c r="C6" s="89"/>
       <c r="D6" s="77">
         <v>613.84699999999998</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="83"/>
+      <c r="H6" s="89"/>
       <c r="I6" s="77">
         <v>2.2000000000000002</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="82" t="s">
+      <c r="K6" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="83"/>
+      <c r="L6" s="89"/>
       <c r="M6" s="81">
         <f>24*3600/$M$5*$I$6*$I$5/D6/1000000</f>
         <v>7.6401640690808459E-2</v>
@@ -1630,7 +1630,7 @@
       <c r="AC6"/>
     </row>
     <row r="7" spans="1:29" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90"/>
+      <c r="A7" s="83"/>
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
@@ -1642,7 +1642,7 @@
       <c r="AC7"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="24" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1693,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="44" t="s">
         <v>52</v>
       </c>
@@ -1759,7 +1759,7 @@
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="33" t="s">
         <v>12</v>
       </c>
@@ -1810,7 +1810,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="90"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="47" t="s">
         <v>43</v>
       </c>
@@ -1861,7 +1861,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="90"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="33" t="s">
         <v>15</v>
       </c>
@@ -1927,7 +1927,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="47" t="s">
         <v>53</v>
       </c>
@@ -1993,7 +1993,7 @@
       </c>
     </row>
     <row r="14" spans="1:29" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="33" t="s">
         <v>54</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>700</v>
       </c>
       <c r="E14" s="38">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="F14" s="38">
         <v>450</v>
@@ -2044,7 +2044,7 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="47" t="s">
         <v>19</v>
       </c>
@@ -2110,7 +2110,7 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="33" t="s">
         <v>20</v>
       </c>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="E16" s="58">
         <f t="shared" si="8"/>
-        <v>356.48679275996125</v>
+        <v>338.66245312196321</v>
       </c>
       <c r="F16" s="58">
         <f t="shared" ref="F16" si="9">F14/F13</f>
@@ -2176,7 +2176,7 @@
       </c>
     </row>
     <row r="17" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="90"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="25" t="s">
         <v>55</v>
       </c>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="E17" s="55">
         <f t="shared" si="11"/>
-        <v>1.0238808489204565</v>
+        <v>1.0777693146531122</v>
       </c>
       <c r="F17" s="55">
         <f t="shared" ref="F17" si="12">F13*365/F14</f>
@@ -2242,25 +2242,25 @@
       </c>
     </row>
     <row r="18" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="86" t="s">
+      <c r="A18" s="83"/>
+      <c r="B18" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="88"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="94"/>
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
@@ -2272,50 +2272,50 @@
       <c r="AC18"/>
     </row>
     <row r="19" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="90"/>
-      <c r="B19" s="92" t="s">
+      <c r="A19" s="83"/>
+      <c r="B19" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="94"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97"/>
     </row>
     <row r="20" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="91"/>
-      <c r="B20" s="95" t="s">
+      <c r="A20" s="84"/>
+      <c r="B20" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="97"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="100"/>
     </row>
     <row r="21" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="82" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -2327,7 +2327,7 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="90"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -2393,7 +2393,7 @@
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="90"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="60" t="s">
         <v>42</v>
       </c>
@@ -2459,7 +2459,7 @@
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="90"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="40" t="s">
         <v>22</v>
       </c>
@@ -2525,7 +2525,7 @@
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="64" t="s">
         <v>20</v>
       </c>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="E26" s="66">
         <f t="shared" si="17"/>
-        <v>400.62920481179384</v>
+        <v>380.5977445712042</v>
       </c>
       <c r="F26" s="66">
         <f t="shared" ref="F26" si="18">IF(F25&gt;0,F$14/F25,"N/A")</f>
@@ -2591,7 +2591,7 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="90"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="71" t="s">
         <v>21</v>
       </c>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="E27" s="73">
         <f t="shared" ref="E27:Q27" si="19">E25*365/E14</f>
-        <v>0.91106688083677867</v>
+        <v>0.95901776930187221</v>
       </c>
       <c r="F27" s="73">
         <f t="shared" ref="F27" si="20">F25*365/F14</f>
@@ -2657,29 +2657,29 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="91"/>
-      <c r="B28" s="98" t="s">
+      <c r="A28" s="84"/>
+      <c r="B28" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="100"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="87"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="82" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -2691,7 +2691,7 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="90"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
@@ -2757,7 +2757,7 @@
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
+      <c r="A32" s="83"/>
       <c r="B32" s="60" t="s">
         <v>42</v>
       </c>
@@ -2823,7 +2823,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="90"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="40" t="s">
         <v>22</v>
       </c>
@@ -2889,7 +2889,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="90"/>
+      <c r="A34" s="83"/>
       <c r="B34" s="64" t="s">
         <v>20</v>
       </c>
@@ -2955,7 +2955,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="90"/>
+      <c r="A35" s="83"/>
       <c r="B35" s="71" t="s">
         <v>21</v>
       </c>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="E35" s="73">
         <f t="shared" si="27"/>
-        <v>-0.14376379440541068</v>
+        <v>-0.15133030990043228</v>
       </c>
       <c r="F35" s="73">
         <f t="shared" ref="F35" si="28">F33*365/F$14</f>
@@ -3021,29 +3021,29 @@
       </c>
     </row>
     <row r="36" spans="1:17" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="91"/>
-      <c r="B36" s="98" t="s">
+      <c r="A36" s="84"/>
+      <c r="B36" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="99"/>
-      <c r="M36" s="99"/>
-      <c r="N36" s="99"/>
-      <c r="O36" s="99"/>
-      <c r="P36" s="99"/>
-      <c r="Q36" s="100"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="86"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="87"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="82" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -3055,7 +3055,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="90"/>
+      <c r="A39" s="83"/>
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
@@ -3121,7 +3121,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="90"/>
+      <c r="A40" s="83"/>
       <c r="B40" s="60" t="s">
         <v>42</v>
       </c>
@@ -3187,7 +3187,7 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="90"/>
+      <c r="A41" s="83"/>
       <c r="B41" s="40" t="s">
         <v>22</v>
       </c>
@@ -3253,7 +3253,7 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="90"/>
+      <c r="A42" s="83"/>
       <c r="B42" s="64" t="s">
         <v>20</v>
       </c>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="E42" s="66">
         <f t="shared" ref="E42:F42" si="42">IF(E41&gt;0,E$14/E41,"N/A")</f>
-        <v>1727.4091547082833</v>
+        <v>1641.038696972869</v>
       </c>
       <c r="F42" s="66">
         <f t="shared" si="42"/>
@@ -3319,7 +3319,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="90"/>
+      <c r="A43" s="83"/>
       <c r="B43" s="71" t="s">
         <v>21</v>
       </c>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="E43" s="31">
         <f>E41*365/E$14</f>
-        <v>0.21129910016115405</v>
+        <v>0.22242010543279375</v>
       </c>
       <c r="F43" s="31">
         <f>F41*365/F$14</f>
@@ -3385,34 +3385,28 @@
       </c>
     </row>
     <row r="44" spans="1:17" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="91"/>
-      <c r="B44" s="98" t="s">
+      <c r="A44" s="84"/>
+      <c r="B44" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="99"/>
-      <c r="M44" s="99"/>
-      <c r="N44" s="99"/>
-      <c r="O44" s="99"/>
-      <c r="P44" s="99"/>
-      <c r="Q44" s="100"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="86"/>
+      <c r="N44" s="86"/>
+      <c r="O44" s="86"/>
+      <c r="P44" s="86"/>
+      <c r="Q44" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B44:Q44"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B28:Q28"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="C3:D3"/>
@@ -3425,6 +3419,12 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B44:Q44"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B28:Q28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="63" orientation="portrait" r:id="rId1"/>

--- a/Mining Profits Analysis.xlsx
+++ b/Mining Profits Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\GitHub\eth-gpu-mining-profitability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B3B44D-22F1-4011-B88A-FDA0CB6498A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0847AFBF-E3B4-4F62-A9DC-0A79B7753CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11325" xr2:uid="{66B3F881-5B90-4DB1-B63B-2D100C44C995}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="21120" xr2:uid="{66B3F881-5B90-4DB1-B63B-2D100C44C995}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario Analysis" sheetId="3" r:id="rId1"/>
@@ -1127,24 +1127,6 @@
     <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1166,12 +1148,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:AC44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="B28" sqref="B28:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,34 +1506,34 @@
   <sheetData>
     <row r="1" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:29" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="90">
-        <v>44340</v>
-      </c>
-      <c r="D3" s="90"/>
+      <c r="C3" s="84">
+        <v>44359</v>
+      </c>
+      <c r="D3" s="84"/>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
@@ -1556,61 +1556,61 @@
       <c r="AC4"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="26">
         <f>'Electricity Calculations'!F6/100</f>
         <v>0.10324999999999999</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="89"/>
+      <c r="H5" s="83"/>
       <c r="I5" s="75">
-        <v>3247</v>
+        <v>2778.17</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="88" t="s">
+      <c r="K5" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="89"/>
+      <c r="L5" s="83"/>
       <c r="M5" s="76">
-        <v>13.16</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="6" spans="1:29" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
-      <c r="B6" s="88" t="s">
+      <c r="A6" s="90"/>
+      <c r="B6" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="77">
         <v>613.84699999999998</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="88" t="s">
+      <c r="G6" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="89"/>
+      <c r="H6" s="83"/>
       <c r="I6" s="77">
         <v>2.2000000000000002</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="88" t="s">
+      <c r="K6" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="89"/>
+      <c r="L6" s="83"/>
       <c r="M6" s="81">
         <f>24*3600/$M$5*$I$6*$I$5/D6/1000000</f>
-        <v>7.6401640690808459E-2</v>
+        <v>6.5122683068600001E-2</v>
       </c>
       <c r="N6"/>
       <c r="O6"/>
@@ -1630,7 +1630,7 @@
       <c r="AC6"/>
     </row>
     <row r="7" spans="1:29" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
+      <c r="A7" s="90"/>
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
@@ -1642,7 +1642,7 @@
       <c r="AC7"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="24" t="s">
         <v>0</v>
       </c>
@@ -1693,73 +1693,73 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="44" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="80">
         <f>$M$6*C10</f>
-        <v>2.2920492207242535</v>
+        <v>1.953680492058</v>
       </c>
       <c r="D9" s="45">
         <f>$M$6*D10</f>
-        <v>2.7504590648691045</v>
+        <v>2.3444165904696002</v>
       </c>
       <c r="E9" s="45">
         <f>$M$6*E10</f>
-        <v>3.3998730107409765</v>
+        <v>2.8979593965527002</v>
       </c>
       <c r="F9" s="45">
         <f>$M$6*F10</f>
-        <v>2.2920492207242535</v>
+        <v>1.953680492058</v>
       </c>
       <c r="G9" s="45">
         <f t="shared" ref="G9:Q9" si="0">$M$6*G10</f>
-        <v>2.4448525021058707</v>
+        <v>2.0839258581952</v>
       </c>
       <c r="H9" s="45">
         <f t="shared" si="0"/>
-        <v>3.2279693191866574</v>
+        <v>2.7514333596483502</v>
       </c>
       <c r="I9" s="45">
         <f t="shared" si="0"/>
-        <v>3.2623500574975215</v>
+        <v>2.7807385670292204</v>
       </c>
       <c r="J9" s="45">
         <f t="shared" si="0"/>
-        <v>3.2852705497047636</v>
+        <v>2.8002753719497999</v>
       </c>
       <c r="K9" s="45">
         <f t="shared" si="0"/>
-        <v>3.2852705497047636</v>
+        <v>2.8002753719497999</v>
       </c>
       <c r="L9" s="45">
         <f t="shared" si="0"/>
-        <v>3.2241492371521172</v>
+        <v>2.7481772254949202</v>
       </c>
       <c r="M9" s="45">
         <f t="shared" si="0"/>
-        <v>4.5229771288958611</v>
+        <v>3.8552628376611202</v>
       </c>
       <c r="N9" s="45">
         <f t="shared" si="0"/>
-        <v>4.6222992617939118</v>
+        <v>3.9399223256503002</v>
       </c>
       <c r="O9" s="45">
         <f t="shared" si="0"/>
-        <v>4.6268833602353601</v>
+        <v>3.943829686634416</v>
       </c>
       <c r="P9" s="45">
         <f t="shared" si="0"/>
-        <v>7.3345575063176121</v>
+        <v>6.2517775745856001</v>
       </c>
       <c r="Q9" s="46">
         <f t="shared" si="0"/>
-        <v>9.1681968828970142</v>
+        <v>7.8147219682319999</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="33" t="s">
         <v>12</v>
       </c>
@@ -1810,7 +1810,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="47" t="s">
         <v>43</v>
       </c>
@@ -1861,7 +1861,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="33" t="s">
         <v>15</v>
       </c>
@@ -1927,73 +1927,73 @@
       </c>
     </row>
     <row r="13" spans="1:29" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="47" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="51">
         <f t="shared" ref="C13:Q13" si="3">C9-C12</f>
-        <v>1.9946892207242537</v>
+        <v>1.6563204920580001</v>
       </c>
       <c r="D13" s="52">
         <f t="shared" si="3"/>
-        <v>2.4159290648691045</v>
+        <v>2.0098865904696002</v>
       </c>
       <c r="E13" s="52">
         <f t="shared" si="3"/>
-        <v>2.8051530107409768</v>
+        <v>2.3032393965527005</v>
       </c>
       <c r="F13" s="52">
         <f t="shared" ref="F13" si="4">F9-F12</f>
-        <v>2.0690292207242535</v>
+        <v>1.730660492058</v>
       </c>
       <c r="G13" s="52">
         <f>G9-G12</f>
-        <v>2.2218325021058707</v>
+        <v>1.8609058581952</v>
       </c>
       <c r="H13" s="52">
         <f t="shared" si="3"/>
-        <v>2.9553893191866574</v>
+        <v>2.4788533596483502</v>
       </c>
       <c r="I13" s="52">
         <f t="shared" si="3"/>
-        <v>2.9649900574975216</v>
+        <v>2.4833785670292206</v>
       </c>
       <c r="J13" s="52">
         <f t="shared" si="3"/>
-        <v>2.9755205497047639</v>
+        <v>2.4905253719497997</v>
       </c>
       <c r="K13" s="52">
         <f t="shared" si="3"/>
-        <v>3.0176465497047635</v>
+        <v>2.5326513719497998</v>
       </c>
       <c r="L13" s="52">
         <f t="shared" si="3"/>
-        <v>2.8772292371521173</v>
+        <v>2.4012572254949203</v>
       </c>
       <c r="M13" s="52">
         <f t="shared" si="3"/>
-        <v>3.9530371288958612</v>
+        <v>3.2853228376611203</v>
       </c>
       <c r="N13" s="52">
         <f t="shared" si="3"/>
-        <v>4.3249392617939115</v>
+        <v>3.6425623256503004</v>
       </c>
       <c r="O13" s="52">
         <f t="shared" si="3"/>
-        <v>4.3295233602353598</v>
+        <v>3.6464696866344162</v>
       </c>
       <c r="P13" s="52">
         <f t="shared" si="3"/>
-        <v>6.789397506317612</v>
+        <v>5.7066175745856</v>
       </c>
       <c r="Q13" s="53">
         <f t="shared" si="3"/>
-        <v>8.4619668828970145</v>
+        <v>7.1084919682320002</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="33" t="s">
         <v>54</v>
       </c>
@@ -2044,7 +2044,7 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="47" t="s">
         <v>19</v>
       </c>
@@ -2110,157 +2110,157 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="57">
         <f t="shared" ref="C16" si="7">C14/C13</f>
-        <v>300.79873785157639</v>
+        <v>362.24873318719375</v>
       </c>
       <c r="D16" s="58">
         <f t="shared" ref="D16:Q16" si="8">D14/D13</f>
-        <v>289.74360637443885</v>
+        <v>348.27835725619144</v>
       </c>
       <c r="E16" s="58">
         <f t="shared" si="8"/>
-        <v>338.66245312196321</v>
+        <v>412.46255227393294</v>
       </c>
       <c r="F16" s="58">
         <f t="shared" ref="F16" si="9">F14/F13</f>
-        <v>217.49330337755197</v>
+        <v>260.01633599718127</v>
       </c>
       <c r="G16" s="58">
         <f t="shared" si="8"/>
-        <v>360.06314573297203</v>
+        <v>429.89815765096262</v>
       </c>
       <c r="H16" s="58">
         <f t="shared" si="8"/>
-        <v>321.44665132018758</v>
+        <v>383.24170984231472</v>
       </c>
       <c r="I16" s="58">
         <f t="shared" si="8"/>
-        <v>337.26925912325288</v>
+        <v>402.67722902846231</v>
       </c>
       <c r="J16" s="58">
         <f t="shared" si="8"/>
-        <v>336.07564904877626</v>
+        <v>401.5217075331833</v>
       </c>
       <c r="K16" s="58">
         <f t="shared" si="8"/>
-        <v>430.7992929546993</v>
+        <v>513.29607161809065</v>
       </c>
       <c r="L16" s="58">
         <f t="shared" si="8"/>
-        <v>451.82357499145274</v>
+        <v>541.38306641932479</v>
       </c>
       <c r="M16" s="58">
         <f t="shared" si="8"/>
-        <v>455.34608993231626</v>
+        <v>547.89136074111116</v>
       </c>
       <c r="N16" s="58">
         <f t="shared" si="8"/>
-        <v>416.1908158805889</v>
+        <v>494.15763934214885</v>
       </c>
       <c r="O16" s="58">
         <f t="shared" si="8"/>
-        <v>427.29876849525328</v>
+        <v>507.34001897256832</v>
       </c>
       <c r="P16" s="58">
         <f t="shared" si="8"/>
-        <v>427.13657541799796</v>
+        <v>508.18194177145131</v>
       </c>
       <c r="Q16" s="59">
         <f t="shared" si="8"/>
-        <v>508.15608941828714</v>
+        <v>604.91029872676097</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="54">
         <f t="shared" ref="C17" si="10">C13*365/C14</f>
-        <v>1.2134359426072543</v>
+        <v>1.0075949660019501</v>
       </c>
       <c r="D17" s="55">
         <f t="shared" ref="D17:Q17" si="11">D13*365/D14</f>
-        <v>1.2597344409674618</v>
+        <v>1.048012293602006</v>
       </c>
       <c r="E17" s="55">
         <f t="shared" si="11"/>
-        <v>1.0777693146531122</v>
+        <v>0.88492882078077439</v>
       </c>
       <c r="F17" s="55">
         <f t="shared" ref="F17" si="12">F13*365/F14</f>
-        <v>1.6782125901430056</v>
+        <v>1.4037579546692667</v>
       </c>
       <c r="G17" s="55">
         <f t="shared" si="11"/>
-        <v>1.0137110790858035</v>
+        <v>0.84903829780156004</v>
       </c>
       <c r="H17" s="55">
         <f t="shared" si="11"/>
-        <v>1.1354916857927684</v>
+        <v>0.95240155397015558</v>
       </c>
       <c r="I17" s="55">
         <f t="shared" si="11"/>
-        <v>1.0822213709865955</v>
+        <v>0.9064331769656655</v>
       </c>
       <c r="J17" s="55">
         <f t="shared" si="11"/>
-        <v>1.0860650006422388</v>
+        <v>0.90904176076167686</v>
       </c>
       <c r="K17" s="55">
         <f t="shared" si="11"/>
-        <v>0.84726230049402973</v>
+        <v>0.7110905775089823</v>
       </c>
       <c r="L17" s="55">
         <f t="shared" si="11"/>
-        <v>0.80783743966194066</v>
+        <v>0.67419914408126613</v>
       </c>
       <c r="M17" s="55">
         <f t="shared" si="11"/>
-        <v>0.80158808447054963</v>
+        <v>0.66619046430350493</v>
       </c>
       <c r="N17" s="55">
         <f t="shared" si="11"/>
-        <v>0.87700157253043209</v>
+        <v>0.73863069381242197</v>
       </c>
       <c r="O17" s="55">
         <f t="shared" si="11"/>
-        <v>0.85420325755994941</v>
+        <v>0.71943861384949281</v>
       </c>
       <c r="P17" s="55">
         <f t="shared" si="11"/>
-        <v>0.85452761717445813</v>
+        <v>0.71824669473232561</v>
       </c>
       <c r="Q17" s="56">
         <f t="shared" si="11"/>
-        <v>0.71828323540870009</v>
+        <v>0.60339524846620474</v>
       </c>
     </row>
     <row r="18" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="92" t="s">
+      <c r="A18" s="90"/>
+      <c r="B18" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="94"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="88"/>
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
@@ -2272,50 +2272,50 @@
       <c r="AC18"/>
     </row>
     <row r="19" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="95" t="s">
+      <c r="A19" s="90"/>
+      <c r="B19" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="97"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="94"/>
     </row>
     <row r="20" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
-      <c r="B20" s="98" t="s">
+      <c r="A20" s="91"/>
+      <c r="B20" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="100"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97"/>
     </row>
     <row r="21" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="89" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -2327,7 +2327,7 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="4" t="s">
         <v>0</v>
       </c>
@@ -2393,293 +2393,293 @@
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="60" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="61">
         <f t="shared" ref="C24:Q24" si="14">C$9*(1-$C$22)</f>
-        <v>2.0836811097493215</v>
+        <v>1.7760731745981817</v>
       </c>
       <c r="D24" s="62">
         <f t="shared" si="14"/>
-        <v>2.500417331699186</v>
+        <v>2.131287809517818</v>
       </c>
       <c r="E24" s="62">
         <f t="shared" si="14"/>
-        <v>3.0907936461281604</v>
+        <v>2.6345085423206362</v>
       </c>
       <c r="F24" s="62">
         <f t="shared" si="14"/>
-        <v>2.0836811097493215</v>
+        <v>1.7760731745981817</v>
       </c>
       <c r="G24" s="62">
         <f t="shared" si="14"/>
-        <v>2.2225931837326098</v>
+        <v>1.8944780529047272</v>
       </c>
       <c r="H24" s="62">
         <f t="shared" si="14"/>
-        <v>2.9345175628969611</v>
+        <v>2.5013030542257728</v>
       </c>
       <c r="I24" s="62">
         <f t="shared" si="14"/>
-        <v>2.9657727795432014</v>
+        <v>2.5279441518447459</v>
       </c>
       <c r="J24" s="62">
         <f t="shared" si="14"/>
-        <v>2.9866095906406942</v>
+        <v>2.545704883590727</v>
       </c>
       <c r="K24" s="62">
         <f t="shared" si="14"/>
-        <v>2.9866095906406942</v>
+        <v>2.545704883590727</v>
       </c>
       <c r="L24" s="62">
         <f t="shared" si="14"/>
-        <v>2.9310447610473793</v>
+        <v>2.498342932268109</v>
       </c>
       <c r="M24" s="62">
         <f t="shared" si="14"/>
-        <v>4.1117973899053277</v>
+        <v>3.5047843978737454</v>
       </c>
       <c r="N24" s="62">
         <f t="shared" si="14"/>
-        <v>4.2020902379944651</v>
+        <v>3.5817475687730003</v>
       </c>
       <c r="O24" s="62">
         <f t="shared" si="14"/>
-        <v>4.2062576002139638</v>
+        <v>3.5852997151221961</v>
       </c>
       <c r="P24" s="62">
         <f t="shared" si="14"/>
-        <v>6.6677795511978291</v>
+        <v>5.6834341587141815</v>
       </c>
       <c r="Q24" s="63">
         <f t="shared" si="14"/>
-        <v>8.3347244389972861</v>
+        <v>7.1042926983927268</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="40" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="68">
         <f t="shared" ref="C25:Q25" si="15">C24-C$12</f>
-        <v>1.7863211097493217</v>
+        <v>1.4787131745981816</v>
       </c>
       <c r="D25" s="69">
         <f t="shared" si="15"/>
-        <v>2.165887331699186</v>
+        <v>1.796757809517818</v>
       </c>
       <c r="E25" s="69">
         <f t="shared" si="15"/>
-        <v>2.4960736461281607</v>
+        <v>2.0397885423206361</v>
       </c>
       <c r="F25" s="69">
         <f t="shared" ref="F25" si="16">F24-F$12</f>
-        <v>1.8606611097493215</v>
+        <v>1.5530531745981817</v>
       </c>
       <c r="G25" s="69">
         <f t="shared" si="15"/>
-        <v>1.9995731837326098</v>
+        <v>1.6714580529047272</v>
       </c>
       <c r="H25" s="69">
         <f t="shared" si="15"/>
-        <v>2.661937562896961</v>
+        <v>2.2287230542257728</v>
       </c>
       <c r="I25" s="69">
         <f t="shared" si="15"/>
-        <v>2.6684127795432016</v>
+        <v>2.230584151844746</v>
       </c>
       <c r="J25" s="69">
         <f t="shared" si="15"/>
-        <v>2.676859590640694</v>
+        <v>2.2359548835907272</v>
       </c>
       <c r="K25" s="69">
         <f t="shared" si="15"/>
-        <v>2.7189855906406941</v>
+        <v>2.2780808835907269</v>
       </c>
       <c r="L25" s="69">
         <f t="shared" si="15"/>
-        <v>2.5841247610473794</v>
+        <v>2.1514229322681091</v>
       </c>
       <c r="M25" s="69">
         <f t="shared" si="15"/>
-        <v>3.5418573899053278</v>
+        <v>2.9348443978737455</v>
       </c>
       <c r="N25" s="69">
         <f t="shared" si="15"/>
-        <v>3.9047302379944653</v>
+        <v>3.2843875687730004</v>
       </c>
       <c r="O25" s="69">
         <f t="shared" si="15"/>
-        <v>3.9088976002139639</v>
+        <v>3.2879397151221963</v>
       </c>
       <c r="P25" s="69">
         <f t="shared" si="15"/>
-        <v>6.122619551197829</v>
+        <v>5.1382741587141814</v>
       </c>
       <c r="Q25" s="70">
         <f t="shared" si="15"/>
-        <v>7.6284944389972864</v>
+        <v>6.3980626983927271</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="64" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="65">
         <f t="shared" ref="C26:Q26" si="17">IF(C25&gt;0,C$14/C25,"N/A")</f>
-        <v>335.88585877720459</v>
+        <v>405.75820267716296</v>
       </c>
       <c r="D26" s="66">
         <f t="shared" si="17"/>
-        <v>323.19317341905992</v>
+        <v>389.59062612220038</v>
       </c>
       <c r="E26" s="66">
         <f t="shared" si="17"/>
-        <v>380.5977445712042</v>
+        <v>465.73455056238311</v>
       </c>
       <c r="F26" s="66">
         <f t="shared" ref="F26" si="18">IF(F25&gt;0,F$14/F25,"N/A")</f>
-        <v>241.84952200168598</v>
+        <v>289.75183036886523</v>
       </c>
       <c r="G26" s="66">
         <f t="shared" si="17"/>
-        <v>400.08538147457915</v>
+        <v>478.62403642719465</v>
       </c>
       <c r="H26" s="66">
         <f t="shared" si="17"/>
-        <v>356.88290110235499</v>
+        <v>426.25305023823012</v>
       </c>
       <c r="I26" s="66">
         <f t="shared" si="17"/>
-        <v>374.75461355389973</v>
+        <v>448.31305699584402</v>
       </c>
       <c r="J26" s="66">
         <f t="shared" si="17"/>
-        <v>373.57207807849744</v>
+        <v>447.23621542582146</v>
       </c>
       <c r="K26" s="66">
         <f t="shared" si="17"/>
-        <v>478.11948856031694</v>
+        <v>570.65576967176469</v>
       </c>
       <c r="L26" s="66">
         <f t="shared" si="17"/>
-        <v>503.0716858550951</v>
+        <v>604.25125181197745</v>
       </c>
       <c r="M26" s="66">
         <f t="shared" si="17"/>
-        <v>508.20792647671033</v>
+        <v>613.32042042981061</v>
       </c>
       <c r="N26" s="66">
         <f t="shared" si="17"/>
-        <v>460.97934819807426</v>
+        <v>548.04737940000609</v>
       </c>
       <c r="O26" s="66">
         <f t="shared" si="17"/>
-        <v>473.27921813524489</v>
+        <v>562.66238443828786</v>
       </c>
       <c r="P26" s="66">
         <f t="shared" si="17"/>
-        <v>473.65347066724797</v>
+        <v>564.39183866469784</v>
       </c>
       <c r="Q26" s="67">
         <f t="shared" si="17"/>
-        <v>563.67610075431946</v>
+        <v>672.07844041294152</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="71" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="72">
         <f>C25*365/C$14</f>
-        <v>1.0866786750975042</v>
+        <v>0.89955051454722712</v>
       </c>
       <c r="D27" s="73">
         <f>D25*365/D$14</f>
-        <v>1.129355537243147</v>
+        <v>0.93688085782000519</v>
       </c>
       <c r="E27" s="73">
         <f t="shared" ref="E27:Q27" si="19">E25*365/E14</f>
-        <v>0.95901776930187221</v>
+        <v>0.78370822941792861</v>
       </c>
       <c r="F27" s="73">
         <f t="shared" ref="F27" si="20">F25*365/F14</f>
-        <v>1.5092029001300051</v>
+        <v>1.2596986860629698</v>
       </c>
       <c r="G27" s="73">
         <f t="shared" si="19"/>
-        <v>0.91230526507800325</v>
+        <v>0.76260273663778178</v>
       </c>
       <c r="H27" s="73">
         <f t="shared" si="19"/>
-        <v>1.0227444320604113</v>
+        <v>0.85629885767621794</v>
       </c>
       <c r="I27" s="73">
         <f t="shared" si="19"/>
-        <v>0.97397066453326853</v>
+        <v>0.81416321542333225</v>
       </c>
       <c r="J27" s="73">
         <f t="shared" si="19"/>
-        <v>0.97705375058385335</v>
+        <v>0.81612353251061542</v>
       </c>
       <c r="K27" s="73">
         <f t="shared" si="19"/>
-        <v>0.7634074927568103</v>
+        <v>0.6396150173158579</v>
       </c>
       <c r="L27" s="73">
         <f t="shared" si="19"/>
-        <v>0.72554272137099496</v>
+        <v>0.60405336175219981</v>
       </c>
       <c r="M27" s="73">
         <f t="shared" si="19"/>
-        <v>0.71820997073080262</v>
+        <v>0.59512122512439836</v>
       </c>
       <c r="N27" s="73">
         <f t="shared" si="19"/>
-        <v>0.79179252048221105</v>
+        <v>0.66600081255674737</v>
       </c>
       <c r="O27" s="73">
         <f t="shared" si="19"/>
-        <v>0.7712149319341064</v>
+        <v>0.64870161947005489</v>
       </c>
       <c r="P27" s="73">
         <f t="shared" si="19"/>
-        <v>0.77060556420248538</v>
+        <v>0.64671381652781934</v>
       </c>
       <c r="Q27" s="74">
         <f t="shared" si="19"/>
-        <v>0.64753499307767659</v>
+        <v>0.54309136858449891</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="108.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="84"/>
-      <c r="B28" s="85" t="s">
+      <c r="A28" s="91"/>
+      <c r="B28" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="87"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="100"/>
     </row>
     <row r="29" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="89" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -2691,7 +2691,7 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
@@ -2757,139 +2757,139 @@
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="83"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="60" t="s">
         <v>42</v>
       </c>
       <c r="C32" s="61">
         <f t="shared" ref="C32:Q32" si="22">C$9*(1-$C$30)</f>
-        <v>0.13540219595737596</v>
+        <v>0.11541315362335526</v>
       </c>
       <c r="D32" s="62">
         <f t="shared" si="22"/>
-        <v>0.16248263514885117</v>
+        <v>0.13849578434802634</v>
       </c>
       <c r="E32" s="62">
         <f t="shared" si="22"/>
-        <v>0.20084659067010768</v>
+        <v>0.17119617787464367</v>
       </c>
       <c r="F32" s="62">
         <f t="shared" si="22"/>
-        <v>0.13540219595737596</v>
+        <v>0.11541315362335526</v>
       </c>
       <c r="G32" s="62">
         <f t="shared" si="22"/>
-        <v>0.14442900902120104</v>
+        <v>0.12310736386491229</v>
       </c>
       <c r="H32" s="62">
         <f t="shared" si="22"/>
-        <v>0.19069142597330449</v>
+        <v>0.16254019135289202</v>
       </c>
       <c r="I32" s="62">
         <f t="shared" si="22"/>
-        <v>0.19272245891266515</v>
+        <v>0.16427138865724236</v>
       </c>
       <c r="J32" s="62">
         <f t="shared" si="22"/>
-        <v>0.19407648087223889</v>
+        <v>0.16542552019347587</v>
       </c>
       <c r="K32" s="62">
         <f t="shared" si="22"/>
-        <v>0.19407648087223889</v>
+        <v>0.16542552019347587</v>
       </c>
       <c r="L32" s="62">
         <f t="shared" si="22"/>
-        <v>0.19046575564670887</v>
+        <v>0.16234783609685308</v>
       </c>
       <c r="M32" s="62">
         <f t="shared" si="22"/>
-        <v>0.26719366668922195</v>
+        <v>0.22774862315008773</v>
       </c>
       <c r="N32" s="62">
         <f t="shared" si="22"/>
-        <v>0.2730610951807082</v>
+        <v>0.23274985980709981</v>
       </c>
       <c r="O32" s="62">
         <f t="shared" si="22"/>
-        <v>0.27333189957262294</v>
+        <v>0.2329806861143465</v>
       </c>
       <c r="P32" s="62">
         <f t="shared" si="22"/>
-        <v>0.43328702706360311</v>
+        <v>0.36932209159473683</v>
       </c>
       <c r="Q32" s="63">
         <f t="shared" si="22"/>
-        <v>0.54160878382950384</v>
+        <v>0.46165261449342104</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="40" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="68">
         <f t="shared" ref="C33:Q33" si="23">C32-C$12</f>
-        <v>-0.161957804042624</v>
+        <v>-0.18194684637664471</v>
       </c>
       <c r="D33" s="69">
         <f t="shared" si="23"/>
-        <v>-0.17204736485114883</v>
+        <v>-0.19603421565197365</v>
       </c>
       <c r="E33" s="69">
         <f t="shared" si="23"/>
-        <v>-0.39387340932989223</v>
+        <v>-0.42352382212535622</v>
       </c>
       <c r="F33" s="69">
         <f t="shared" ref="F33" si="24">F32-F$12</f>
-        <v>-8.7617804042624037E-2</v>
+        <v>-0.10760684637664474</v>
       </c>
       <c r="G33" s="69">
         <f t="shared" si="23"/>
-        <v>-7.8590990978798958E-2</v>
+        <v>-9.9912636135087704E-2</v>
       </c>
       <c r="H33" s="69">
         <f t="shared" si="23"/>
-        <v>-8.1888574026695499E-2</v>
+        <v>-0.11003980864710797</v>
       </c>
       <c r="I33" s="69">
         <f t="shared" si="23"/>
-        <v>-0.10463754108733481</v>
+        <v>-0.1330886113427576</v>
       </c>
       <c r="J33" s="69">
         <f t="shared" si="23"/>
-        <v>-0.11567351912776108</v>
+        <v>-0.1443244798065241</v>
       </c>
       <c r="K33" s="69">
         <f t="shared" si="23"/>
-        <v>-7.3547519127761085E-2</v>
+        <v>-0.10219847980652411</v>
       </c>
       <c r="L33" s="69">
         <f t="shared" si="23"/>
-        <v>-0.15645424435329108</v>
+        <v>-0.18457216390314687</v>
       </c>
       <c r="M33" s="69">
         <f t="shared" si="23"/>
-        <v>-0.30274633331077794</v>
+        <v>-0.34219137684991219</v>
       </c>
       <c r="N33" s="69">
         <f t="shared" si="23"/>
-        <v>-2.4298904819291756E-2</v>
+        <v>-6.4610140192900151E-2</v>
       </c>
       <c r="O33" s="69">
         <f t="shared" si="23"/>
-        <v>-2.4028100427377019E-2</v>
+        <v>-6.4379313885653461E-2</v>
       </c>
       <c r="P33" s="69">
         <f t="shared" si="23"/>
-        <v>-0.11187297293639686</v>
+        <v>-0.17583790840526314</v>
       </c>
       <c r="Q33" s="70">
         <f t="shared" si="23"/>
-        <v>-0.16462121617049608</v>
+        <v>-0.24457738550657887</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="64" t="s">
         <v>20</v>
       </c>
@@ -2955,95 +2955,95 @@
       </c>
     </row>
     <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="71" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="72">
         <f t="shared" ref="C35:Q35" si="27">C33*365/C$14</f>
-        <v>-9.8524330792596274E-2</v>
+        <v>-0.1106843315457922</v>
       </c>
       <c r="D35" s="73">
         <f t="shared" si="27"/>
-        <v>-8.9710411672384735E-2</v>
+        <v>-0.10221784101852913</v>
       </c>
       <c r="E35" s="73">
         <f t="shared" si="27"/>
-        <v>-0.15133030990043228</v>
+        <v>-0.16272231060605793</v>
       </c>
       <c r="F35" s="73">
         <f t="shared" ref="F35" si="28">F33*365/F$14</f>
-        <v>-7.1067774390128388E-2</v>
+        <v>-8.7281108727722961E-2</v>
       </c>
       <c r="G35" s="73">
         <f t="shared" si="27"/>
-        <v>-3.5857139634077023E-2</v>
+        <v>-4.5585140236633764E-2</v>
       </c>
       <c r="H35" s="73">
         <f t="shared" si="27"/>
-        <v>-3.1462452126046168E-2</v>
+        <v>-4.2278452795994112E-2</v>
       </c>
       <c r="I35" s="73">
         <f t="shared" si="27"/>
-        <v>-3.8192702496877201E-2</v>
+        <v>-4.8577343140106519E-2</v>
       </c>
       <c r="J35" s="73">
         <f t="shared" si="27"/>
-        <v>-4.2220834481632795E-2</v>
+        <v>-5.26784351293813E-2</v>
       </c>
       <c r="K35" s="73">
         <f t="shared" si="27"/>
-        <v>-2.0649880370486769E-2</v>
+        <v>-2.8694188561062536E-2</v>
       </c>
       <c r="L35" s="73">
         <f t="shared" si="27"/>
-        <v>-4.3927537837654802E-2</v>
+        <v>-5.1822184480498926E-2</v>
       </c>
       <c r="M35" s="73">
         <f t="shared" si="27"/>
-        <v>-6.1390228699129967E-2</v>
+        <v>-6.93888069723433E-2</v>
       </c>
       <c r="N35" s="73">
         <f t="shared" si="27"/>
-        <v>-4.9272779216897166E-3</v>
+        <v>-1.3101500650226975E-2</v>
       </c>
       <c r="O35" s="73">
         <f t="shared" si="27"/>
-        <v>-4.74067927350952E-3</v>
+        <v>-1.2701864631493791E-2</v>
       </c>
       <c r="P35" s="73">
         <f t="shared" si="27"/>
-        <v>-1.4080563835098227E-2</v>
+        <v>-2.2131322954455534E-2</v>
       </c>
       <c r="Q35" s="74">
         <f t="shared" si="27"/>
-        <v>-1.3973661372611877E-2</v>
+        <v>-2.0760638537186345E-2</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="84"/>
-      <c r="B36" s="85" t="s">
+      <c r="A36" s="91"/>
+      <c r="B36" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="87"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="100"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="89" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -3055,7 +3055,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="83"/>
+      <c r="A39" s="90"/>
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
@@ -3121,292 +3121,298 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="83"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="60" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="61">
         <f t="shared" ref="C40:Q40" si="30">C$9*(1-$C$38)</f>
-        <v>0.7912056028834612</v>
+        <v>0.67440216273888254</v>
       </c>
       <c r="D40" s="62">
         <f t="shared" si="30"/>
-        <v>0.94944672346015346</v>
+        <v>0.80928259528665913</v>
       </c>
       <c r="E40" s="62">
         <f t="shared" si="30"/>
-        <v>1.1736216442771343</v>
+        <v>1.0003632080626759</v>
       </c>
       <c r="F40" s="62">
         <f t="shared" si="30"/>
-        <v>0.7912056028834612</v>
+        <v>0.67440216273888254</v>
       </c>
       <c r="G40" s="62">
         <f t="shared" si="30"/>
-        <v>0.84395264307569207</v>
+        <v>0.71936230692147474</v>
       </c>
       <c r="H40" s="62">
         <f t="shared" si="30"/>
-        <v>1.1142812240608746</v>
+        <v>0.9497830458572597</v>
       </c>
       <c r="I40" s="62">
         <f t="shared" si="30"/>
-        <v>1.1261493081041267</v>
+        <v>0.95989907829834298</v>
       </c>
       <c r="J40" s="62">
         <f t="shared" si="30"/>
-        <v>1.1340613641329611</v>
+        <v>0.96664309992573161</v>
       </c>
       <c r="K40" s="62">
         <f t="shared" si="30"/>
-        <v>1.1340613641329611</v>
+        <v>0.96664309992573161</v>
       </c>
       <c r="L40" s="62">
         <f t="shared" si="30"/>
-        <v>1.112962548056069</v>
+        <v>0.94865904225269482</v>
       </c>
       <c r="M40" s="62">
         <f t="shared" si="30"/>
-        <v>1.5613123896900303</v>
+        <v>1.3308202678047283</v>
       </c>
       <c r="N40" s="62">
         <f t="shared" si="30"/>
-        <v>1.5955979658149801</v>
+        <v>1.3600443615234132</v>
       </c>
       <c r="O40" s="62">
         <f t="shared" si="30"/>
-        <v>1.5971803770207471</v>
+        <v>1.3613931658488909</v>
       </c>
       <c r="P40" s="62">
         <f t="shared" si="30"/>
-        <v>2.5318579292270762</v>
+        <v>2.1580869207644242</v>
       </c>
       <c r="Q40" s="63">
         <f t="shared" si="30"/>
-        <v>3.1648224115338448</v>
+        <v>2.6976086509555302</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="40" t="s">
         <v>22</v>
       </c>
       <c r="C41" s="68">
         <f>C40-C$12</f>
-        <v>0.49384560288346124</v>
+        <v>0.37704216273888258</v>
       </c>
       <c r="D41" s="69">
         <f>D40-D$12</f>
-        <v>0.61491672346015347</v>
+        <v>0.47475259528665914</v>
       </c>
       <c r="E41" s="69">
         <f t="shared" ref="E41:F41" si="31">E40-E$12</f>
-        <v>0.57890164427713442</v>
+        <v>0.40564320806267595</v>
       </c>
       <c r="F41" s="69">
         <f t="shared" si="31"/>
-        <v>0.5681856028834612</v>
+        <v>0.45138216273888254</v>
       </c>
       <c r="G41" s="69">
         <f t="shared" ref="G41" si="32">G40-G$12</f>
-        <v>0.62093264307569207</v>
+        <v>0.49634230692147474</v>
       </c>
       <c r="H41" s="69">
         <f t="shared" ref="H41" si="33">H40-H$12</f>
-        <v>0.84170122406087455</v>
+        <v>0.67720304585725977</v>
       </c>
       <c r="I41" s="69">
         <f t="shared" ref="I41" si="34">I40-I$12</f>
-        <v>0.82878930810412677</v>
+        <v>0.66253907829834302</v>
       </c>
       <c r="J41" s="69">
         <f t="shared" ref="J41" si="35">J40-J$12</f>
-        <v>0.82431136413296113</v>
+        <v>0.65689309992573164</v>
       </c>
       <c r="K41" s="69">
         <f t="shared" ref="K41" si="36">K40-K$12</f>
-        <v>0.86643736413296113</v>
+        <v>0.69901909992573164</v>
       </c>
       <c r="L41" s="69">
         <f t="shared" ref="L41" si="37">L40-L$12</f>
-        <v>0.76604254805606908</v>
+        <v>0.60173904225269492</v>
       </c>
       <c r="M41" s="69">
         <f t="shared" ref="M41" si="38">M40-M$12</f>
-        <v>0.99137238969003039</v>
+        <v>0.76088026780472839</v>
       </c>
       <c r="N41" s="69">
         <f t="shared" ref="N41" si="39">N40-N$12</f>
-        <v>1.2982379658149803</v>
+        <v>1.0626843615234134</v>
       </c>
       <c r="O41" s="69">
         <f t="shared" ref="O41" si="40">O40-O$12</f>
-        <v>1.299820377020747</v>
+        <v>1.0640331658488908</v>
       </c>
       <c r="P41" s="69">
         <f t="shared" ref="P41" si="41">P40-P$12</f>
-        <v>1.9866979292270761</v>
+        <v>1.6129269207644241</v>
       </c>
       <c r="Q41" s="70">
         <f>Q40-Q$12</f>
-        <v>2.4585924115338447</v>
+        <v>1.9913786509555302</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="64" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="65">
         <f>IF(C41&gt;0,C$14/C41,"N/A")</f>
-        <v>1214.9546265001154</v>
+        <v>1591.3339655213176</v>
       </c>
       <c r="D42" s="66">
         <f>IF(D41&gt;0,D$14/D41,"N/A")</f>
-        <v>1138.3655270604459</v>
+        <v>1474.4521819355928</v>
       </c>
       <c r="E42" s="66">
         <f t="shared" ref="E42:F42" si="42">IF(E41&gt;0,E$14/E41,"N/A")</f>
-        <v>1641.038696972869</v>
+        <v>2341.9595869412792</v>
       </c>
       <c r="F42" s="66">
         <f t="shared" si="42"/>
-        <v>791.99472446382651</v>
+        <v>996.9379323044227</v>
       </c>
       <c r="G42" s="66">
         <f t="shared" ref="G42" si="43">IF(G41&gt;0,G$14/G41,"N/A")</f>
-        <v>1288.384511462187</v>
+        <v>1611.7908726377545</v>
       </c>
       <c r="H42" s="66">
         <f t="shared" ref="H42" si="44">IF(H41&gt;0,H$14/H41,"N/A")</f>
-        <v>1128.6665301692526</v>
+        <v>1402.8288942460547</v>
       </c>
       <c r="I42" s="66">
         <f t="shared" ref="I42" si="45">IF(I41&gt;0,I$14/I41,"N/A")</f>
-        <v>1206.5792719835169</v>
+        <v>1509.3449318769051</v>
       </c>
       <c r="J42" s="66">
         <f t="shared" ref="J42" si="46">IF(J41&gt;0,J$14/J41,"N/A")</f>
-        <v>1213.133827230241</v>
+        <v>1522.3177106184553</v>
       </c>
       <c r="K42" s="66">
         <f t="shared" ref="K42" si="47">IF(K41&gt;0,K$14/K41,"N/A")</f>
-        <v>1500.3969748014069</v>
+        <v>1859.748896901559</v>
       </c>
       <c r="L42" s="66">
         <f t="shared" ref="L42" si="48">IF(L41&gt;0,L$14/L41,"N/A")</f>
-        <v>1697.0336743029695</v>
+        <v>2160.4049408748128</v>
       </c>
       <c r="M42" s="66">
         <f t="shared" ref="M42" si="49">IF(M41&gt;0,M$14/M41,"N/A")</f>
-        <v>1815.6648487686862</v>
+        <v>2365.6810094357056</v>
       </c>
       <c r="N42" s="66">
         <f t="shared" ref="N42" si="50">IF(N41&gt;0,N$14/N41,"N/A")</f>
-        <v>1386.494654599039</v>
+        <v>1693.8237403057351</v>
       </c>
       <c r="O42" s="66">
         <f t="shared" ref="O42" si="51">IF(O41&gt;0,O$14/O41,"N/A")</f>
-        <v>1423.2735789542644</v>
+        <v>1738.6676086586651</v>
       </c>
       <c r="P42" s="66">
         <f t="shared" ref="P42" si="52">IF(P41&gt;0,P$14/P41,"N/A")</f>
-        <v>1459.708573375442</v>
+        <v>1797.9735861966924</v>
       </c>
       <c r="Q42" s="67">
         <f>IF(Q41&gt;0,Q$14/Q41,"N/A")</f>
-        <v>1748.96822256006</v>
+        <v>2159.3080743015475</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="83"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="71" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:Q43" si="53">C41*365/C$14</f>
-        <v>0.3004227417541056</v>
+        <v>0.22936731566615354</v>
       </c>
       <c r="D43" s="31">
         <f t="shared" si="53"/>
-        <v>0.32063514866136572</v>
+        <v>0.24754956754232943</v>
       </c>
       <c r="E43" s="31">
         <f>E41*365/E$14</f>
-        <v>0.22242010543279375</v>
+        <v>0.15585239046618601</v>
       </c>
       <c r="F43" s="31">
         <f>F41*365/F$14</f>
-        <v>0.46086165567214077</v>
+        <v>0.36612108755487138</v>
       </c>
       <c r="G43" s="31">
         <f t="shared" si="53"/>
-        <v>0.28330051840328452</v>
+        <v>0.22645617753292285</v>
       </c>
       <c r="H43" s="31">
         <f t="shared" si="53"/>
-        <v>0.32339047029707285</v>
+        <v>0.26018853867147346</v>
       </c>
       <c r="I43" s="31">
         <f t="shared" si="53"/>
-        <v>0.30250809745800628</v>
+        <v>0.24182676357889521</v>
       </c>
       <c r="J43" s="31">
         <f t="shared" si="53"/>
-        <v>0.30087364790853083</v>
+        <v>0.23976598147289205</v>
       </c>
       <c r="K43" s="31">
         <f t="shared" si="53"/>
-        <v>0.24326895223733139</v>
+        <v>0.19626305497914773</v>
       </c>
       <c r="L43" s="31">
         <f t="shared" si="53"/>
-        <v>0.21508117695420401</v>
+        <v>0.1689498080171028</v>
       </c>
       <c r="M43" s="31">
         <f t="shared" si="53"/>
-        <v>0.20102829013158949</v>
+        <v>0.15428960986040327</v>
       </c>
       <c r="N43" s="31">
         <f t="shared" si="53"/>
-        <v>0.26325380973470436</v>
+        <v>0.21548877330891439</v>
       </c>
       <c r="O43" s="31">
         <f t="shared" si="53"/>
-        <v>0.25645104735814739</v>
+        <v>0.20993086785667306</v>
       </c>
       <c r="P43" s="31">
         <f t="shared" si="53"/>
-        <v>0.25004991178202857</v>
+        <v>0.20300631933759131</v>
       </c>
       <c r="Q43" s="32">
         <f t="shared" si="53"/>
-        <v>0.20869447214182635</v>
+        <v>0.16903562967413222</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="84"/>
-      <c r="B44" s="85" t="s">
+      <c r="A44" s="91"/>
+      <c r="B44" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="86"/>
-      <c r="O44" s="86"/>
-      <c r="P44" s="86"/>
-      <c r="Q44" s="87"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="99"/>
+      <c r="P44" s="99"/>
+      <c r="Q44" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B44:Q44"/>
+    <mergeCell ref="B36:Q36"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B28:Q28"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="C3:D3"/>
@@ -3419,12 +3425,6 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B44:Q44"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B28:Q28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="63" orientation="portrait" r:id="rId1"/>
